--- a/data/test_occurrenceData.xlsx
+++ b/data/test_occurrenceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Python/ccClub2410/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9250C18-AEF8-C546-97E2-B12FAE610C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F2C76-ADB0-BB4B-959D-511811ECEF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="15920" xr2:uid="{65E7DDE8-6CB4-BC4C-B267-38FF0EA8E35E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
   <si>
     <t>serialNumber</t>
   </si>
@@ -48,19 +48,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
     <t>CAC_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022/11/8</t>
-  </si>
-  <si>
     <t>森林1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -75,9 +66,6 @@
     <t>CAC_2</t>
   </si>
   <si>
-    <t>2022/11/10</t>
-  </si>
-  <si>
     <t>田園2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -89,9 +77,6 @@
     <t>CAC_3</t>
   </si>
   <si>
-    <t>2022/12/23</t>
-  </si>
-  <si>
     <t>草地6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -103,9 +88,6 @@
     <t>CAC_4</t>
   </si>
   <si>
-    <t>2023/1/25</t>
-  </si>
-  <si>
     <t>針葉林1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -120,9 +102,6 @@
     <t>CAC_5</t>
   </si>
   <si>
-    <t>2023/2/21</t>
-  </si>
-  <si>
     <t>人造林2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,54 +115,36 @@
     <t>CAC_7</t>
   </si>
   <si>
-    <t>2023/3/17</t>
-  </si>
-  <si>
     <t>田園3</t>
   </si>
   <si>
     <t>CAC_8</t>
   </si>
   <si>
-    <t>2023/4/5</t>
-  </si>
-  <si>
     <t>草地7</t>
   </si>
   <si>
     <t>CAC_9</t>
   </si>
   <si>
-    <t>2023/4/10</t>
-  </si>
-  <si>
     <t>針葉林2</t>
   </si>
   <si>
     <t>CAC_10</t>
   </si>
   <si>
-    <t>2023/4/11</t>
-  </si>
-  <si>
     <t>人造林3</t>
   </si>
   <si>
     <t>CAC_11</t>
   </si>
   <si>
-    <t>2023/4/25</t>
-  </si>
-  <si>
     <t>森林3</t>
   </si>
   <si>
     <t>CAC_12</t>
   </si>
   <si>
-    <t>2023/4/29</t>
-  </si>
-  <si>
     <t>田園4</t>
   </si>
   <si>
@@ -196,27 +157,18 @@
     <t>CAC_14</t>
   </si>
   <si>
-    <t>2023/6/10</t>
-  </si>
-  <si>
     <t>針葉林3</t>
   </si>
   <si>
     <t>CAC_15</t>
   </si>
   <si>
-    <t>2023/9/15</t>
-  </si>
-  <si>
     <t>人造林4</t>
   </si>
   <si>
     <t>CAC_16</t>
   </si>
   <si>
-    <t>2023/10/20</t>
-  </si>
-  <si>
     <t>森林4</t>
   </si>
   <si>
@@ -229,16 +181,10 @@
     <t>CAC_18</t>
   </si>
   <si>
-    <t>2023/11/2</t>
-  </si>
-  <si>
     <t>草地9</t>
   </si>
   <si>
     <t>CAC_19</t>
-  </si>
-  <si>
-    <t>2023/11/13</t>
   </si>
   <si>
     <t>針葉林5</t>
@@ -248,36 +194,24 @@
     <t>CAC_20</t>
   </si>
   <si>
-    <t>2023/11/14</t>
-  </si>
-  <si>
     <t>人造林5</t>
   </si>
   <si>
     <t>CAC_21</t>
   </si>
   <si>
-    <t>2023/11/21</t>
-  </si>
-  <si>
     <t>森林5</t>
   </si>
   <si>
     <t>CAC_22</t>
   </si>
   <si>
-    <t>2023/12/5</t>
-  </si>
-  <si>
     <t>田園6</t>
   </si>
   <si>
     <t>CAC_23</t>
   </si>
   <si>
-    <t>2023/12/7</t>
-  </si>
-  <si>
     <t>草地10</t>
   </si>
   <si>
@@ -288,9 +222,6 @@
   </si>
   <si>
     <t>CAC_25</t>
-  </si>
-  <si>
-    <t>2023/12/26</t>
   </si>
   <si>
     <t>人造林6</t>
@@ -446,6 +377,14 @@
   </si>
   <si>
     <t>melogale subaurantiaca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vernacularName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordBy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +443,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B01C0D-123F-A541-AA81-B3B7547C7CD5}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -846,71 +788,71 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2">
-        <v>121.54680500000001</v>
-      </c>
-      <c r="H2">
-        <v>25.178584000000001</v>
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41953</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>121.56175</v>
@@ -924,22 +866,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41996</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G4">
         <v>121.54221099999999</v>
@@ -953,22 +895,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42029</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>121.56171000000001</v>
@@ -982,22 +924,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42056</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <v>121.6206377</v>
@@ -1011,22 +953,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42421</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>121.53683100000001</v>
@@ -1035,27 +977,27 @@
         <v>25.180592000000001</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42446</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G8">
         <v>121.54408506</v>
@@ -1069,22 +1011,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42465</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G9">
         <v>121.603801</v>
@@ -1098,22 +1040,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42470</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="G10">
         <v>121.61141499999999</v>
@@ -1127,22 +1069,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42471</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>121.499399</v>
@@ -1156,22 +1098,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42850</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>121.55549999999999</v>
@@ -1185,22 +1127,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42854</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G13">
         <v>121.564672</v>
@@ -1209,27 +1151,27 @@
         <v>25.161556999999998</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42854</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G14">
         <v>121.61141499999999</v>
@@ -1243,22 +1185,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43261</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="G15">
         <v>121.565709</v>
@@ -1267,27 +1209,27 @@
         <v>25.185787999999999</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43358</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G16">
         <v>121.564672</v>
@@ -1296,27 +1238,27 @@
         <v>25.161556999999998</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43393</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G17">
         <v>121.540155</v>
@@ -1330,22 +1272,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43393</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G18">
         <v>121.56520500000001</v>
@@ -1359,22 +1301,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43771</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G19">
         <v>121.56238999999999</v>
@@ -1383,27 +1325,27 @@
         <v>25.152956</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43782</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G20">
         <v>121.55414261999999</v>
@@ -1417,22 +1359,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44149</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G21">
         <v>121.561849</v>
@@ -1446,22 +1388,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44521</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G22">
         <v>121.56520500000001</v>
@@ -1475,22 +1417,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44900</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>121.5406744</v>
@@ -1499,27 +1441,27 @@
         <v>25.173590050000001</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44902</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G24">
         <v>121.594319</v>
@@ -1528,27 +1470,27 @@
         <v>25.151402999999998</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44902</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G25">
         <v>121.56953</v>
@@ -1562,22 +1504,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45286</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>121.57048500000001</v>
@@ -1586,27 +1528,27 @@
         <v>25.147079000000002</v>
       </c>
       <c r="I26">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>121.566928</v>
@@ -1615,27 +1557,27 @@
         <v>25.165109000000001</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <v>121.5732794</v>
@@ -1644,27 +1586,27 @@
         <v>25.165953500000001</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G29">
         <v>121.55048499999999</v>
@@ -1678,22 +1620,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <v>121.540723</v>
@@ -1702,27 +1644,27 @@
         <v>25.169543000000001</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>121.55659900000001</v>
@@ -1731,27 +1673,27 @@
         <v>25.178909000000001</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G32">
         <v>121.591458</v>
@@ -1765,57 +1707,57 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
-      </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -1823,31 +1765,31 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="G35">
+        <v>121.54680500000001</v>
+      </c>
+      <c r="H35">
+        <v>25.178584000000001</v>
       </c>
       <c r="I35">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_occurrenceData.xlsx
+++ b/data/test_occurrenceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Python/ccClub2410/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F2C76-ADB0-BB4B-959D-511811ECEF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F47682-8F04-F44F-91F0-60D93FC41BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="15920" xr2:uid="{65E7DDE8-6CB4-BC4C-B267-38FF0EA8E35E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
   <si>
     <t>serialNumber</t>
   </si>
@@ -386,6 +386,72 @@
   <si>
     <t>recordBy</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/11/8</t>
+  </si>
+  <si>
+    <t>2014/11/10</t>
+  </si>
+  <si>
+    <t>2014/12/23</t>
+  </si>
+  <si>
+    <t>2015/1/25</t>
+  </si>
+  <si>
+    <t>2015/2/21</t>
+  </si>
+  <si>
+    <t>2016/2/21</t>
+  </si>
+  <si>
+    <t>2016/3/17</t>
+  </si>
+  <si>
+    <t>2016/4/5</t>
+  </si>
+  <si>
+    <t>2016/4/10</t>
+  </si>
+  <si>
+    <t>2016/4/11</t>
+  </si>
+  <si>
+    <t>2017/4/25</t>
+  </si>
+  <si>
+    <t>2017/4/29</t>
+  </si>
+  <si>
+    <t>2018/6/10</t>
+  </si>
+  <si>
+    <t>2018/9/15</t>
+  </si>
+  <si>
+    <t>2018/10/20</t>
+  </si>
+  <si>
+    <t>2019/11/2</t>
+  </si>
+  <si>
+    <t>2019/11/13</t>
+  </si>
+  <si>
+    <t>2020/11/14</t>
+  </si>
+  <si>
+    <t>2021/11/21</t>
+  </si>
+  <si>
+    <t>2022/12/5</t>
+  </si>
+  <si>
+    <t>2022/12/7</t>
+  </si>
+  <si>
+    <t>2023/12/26</t>
   </si>
 </sst>
 </file>
@@ -443,11 +509,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B01C0D-123F-A541-AA81-B3B7547C7CD5}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -810,8 +873,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>41951</v>
+      <c r="B2" t="s">
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -839,8 +902,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>41953</v>
+      <c r="B3" t="s">
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -868,8 +931,8 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>41996</v>
+      <c r="B4" t="s">
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -897,8 +960,8 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
-        <v>42029</v>
+      <c r="B5" t="s">
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -926,8 +989,8 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
-        <v>42056</v>
+      <c r="B6" t="s">
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -955,8 +1018,8 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
-        <v>42421</v>
+      <c r="B7" t="s">
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -984,8 +1047,8 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
-        <v>42446</v>
+      <c r="B8" t="s">
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1013,8 +1076,8 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
-        <v>42465</v>
+      <c r="B9" t="s">
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1042,8 +1105,8 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
-        <v>42470</v>
+      <c r="B10" t="s">
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1071,8 +1134,8 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1">
-        <v>42471</v>
+      <c r="B11" t="s">
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1100,8 +1163,8 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
-        <v>42850</v>
+      <c r="B12" t="s">
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1129,8 +1192,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1">
-        <v>42854</v>
+      <c r="B13" t="s">
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1158,8 +1221,8 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1">
-        <v>42854</v>
+      <c r="B14" t="s">
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1187,8 +1250,8 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1">
-        <v>43261</v>
+      <c r="B15" t="s">
+        <v>120</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1216,8 +1279,8 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1">
-        <v>43358</v>
+      <c r="B16" t="s">
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1245,8 +1308,8 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1">
-        <v>43393</v>
+      <c r="B17" t="s">
+        <v>122</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -1274,8 +1337,8 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1">
-        <v>43393</v>
+      <c r="B18" t="s">
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -1303,8 +1366,8 @@
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1">
-        <v>43771</v>
+      <c r="B19" t="s">
+        <v>123</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -1332,8 +1395,8 @@
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1">
-        <v>43782</v>
+      <c r="B20" t="s">
+        <v>124</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1361,8 +1424,8 @@
       <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1">
-        <v>44149</v>
+      <c r="B21" t="s">
+        <v>125</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -1390,8 +1453,8 @@
       <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="1">
-        <v>44521</v>
+      <c r="B22" t="s">
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1419,8 +1482,8 @@
       <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1">
-        <v>44900</v>
+      <c r="B23" t="s">
+        <v>127</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
@@ -1448,8 +1511,8 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1">
-        <v>44902</v>
+      <c r="B24" t="s">
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1477,8 +1540,8 @@
       <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1">
-        <v>44902</v>
+      <c r="B25" t="s">
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -1506,8 +1569,8 @@
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="1">
-        <v>45286</v>
+      <c r="B26" t="s">
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>

--- a/data/test_occurrenceData.xlsx
+++ b/data/test_occurrenceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephine/Python/ccClub2410/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F47682-8F04-F44F-91F0-60D93FC41BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74553C-729C-EF41-9CB1-C23658CCAF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="15920" xr2:uid="{65E7DDE8-6CB4-BC4C-B267-38FF0EA8E35E}"/>
   </bookViews>
@@ -356,10 +356,6 @@
     <t>Melogale subaurantiaca</t>
   </si>
   <si>
-    <t>Urva</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Melogale subaurantiaca  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,6 +448,10 @@
   </si>
   <si>
     <t>2023/12/26</t>
+  </si>
+  <si>
+    <t>Urva urva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B01C0D-123F-A541-AA81-B3B7547C7CD5}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -851,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>93</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -932,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -944,7 +944,7 @@
         <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4">
         <v>121.54221099999999</v>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>121.56171000000001</v>
@@ -990,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1002,7 +1002,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>121.6206377</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1031,7 +1031,7 @@
         <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>121.53683100000001</v>
@@ -1048,7 +1048,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1077,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1106,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1164,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1193,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -1205,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13">
         <v>121.564672</v>
@@ -1222,7 +1222,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1251,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1280,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1309,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -1338,7 +1338,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -1367,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -1396,7 +1396,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1425,7 +1425,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -1437,7 +1437,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21">
         <v>121.561849</v>
@@ -1454,7 +1454,7 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1466,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22">
         <v>121.56520500000001</v>
@@ -1483,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
@@ -1512,7 +1512,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1541,7 +1541,7 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -1570,7 +1570,7 @@
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
